--- a/src/public/exports/thong-ke-danh-sach-nguoi-dung.xlsx
+++ b/src/public/exports/thong-ke-danh-sach-nguoi-dung.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -405,19 +405,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>Lê Đình Lan</v>
+        <v>Nguyễn Huy123</v>
       </c>
       <c r="C2" t="str">
-        <v>17-09-2021</v>
+        <v>09-11-2022</v>
       </c>
       <c r="D2" t="str">
-        <v>0902580484</v>
+        <v>0336140880</v>
       </c>
       <c r="E2" t="str">
-        <v>178A Duong Quang Ham</v>
+        <v>123323434</v>
       </c>
       <c r="F2" t="str">
-        <v>Ldlan122b7@gmail.com</v>
+        <v>nvh201001@gmail.com</v>
       </c>
     </row>
     <row r="3">
@@ -425,19 +425,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Lê Lan</v>
+        <v>Nguyễn Huy</v>
       </c>
       <c r="C3" t="str">
         <v>17-09-2021</v>
       </c>
       <c r="D3" t="str">
-        <v>0986580484</v>
+        <v>0666666666</v>
       </c>
       <c r="E3" t="str">
-        <v>178A Duong Quang Ham</v>
+        <v>12332323</v>
       </c>
       <c r="F3" t="str">
-        <v>Ldlan1222121b7@gmail.com</v>
+        <v>cuccutkhongmau2k1@gmail.com</v>
       </c>
     </row>
     <row r="4">
@@ -445,184 +445,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Lê Lan</v>
+        <v>Nguyễn An</v>
       </c>
       <c r="C4" t="str">
         <v>17-09-2021</v>
       </c>
       <c r="D4" t="str">
-        <v>0906230484</v>
+        <v>9999999999</v>
       </c>
       <c r="E4" t="str">
-        <v>178A Duong Quang Ham</v>
+        <v>12323213</v>
       </c>
       <c r="F4" t="str">
-        <v>Ldlan21212b7@gmail.com</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Lê Đình Lan</v>
-      </c>
-      <c r="C5" t="str">
-        <v>11-03-2001</v>
-      </c>
-      <c r="D5" t="str">
-        <v>0906580384</v>
-      </c>
-      <c r="E5" t="str">
-        <v>178A Duong Quang Ham</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Ldlan12b7s@gmail.com</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Nguyễn Văn Huy</v>
-      </c>
-      <c r="C6" t="str">
-        <v>20-10-2001</v>
-      </c>
-      <c r="D6" t="str">
-        <v>1231213123</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Đồng nai</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Nguyeva@gmail.com</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Lê Lan</v>
-      </c>
-      <c r="C7" t="str">
-        <v>17-09-2021</v>
-      </c>
-      <c r="D7" t="str">
-        <v>0923180484</v>
-      </c>
-      <c r="E7" t="str">
-        <v>178A Duong Quang Ham</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Ldlan7@gmail.com</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Dinh Lan</v>
-      </c>
-      <c r="C8" t="str">
-        <v>17-09-2021</v>
-      </c>
-      <c r="D8" t="str">
-        <v>0906580489</v>
-      </c>
-      <c r="E8" t="str">
-        <v>176A Duong Quang Ham</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Ldlan17@gmail.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Nguyễn Phúc Ân</v>
-      </c>
-      <c r="C9" t="str">
-        <v>12-12-2000</v>
-      </c>
-      <c r="D9" t="str">
-        <v>0365898458</v>
-      </c>
-      <c r="E9" t="str">
-        <v>DakLak</v>
-      </c>
-      <c r="F9" t="str">
-        <v>nguyenphucandeg@gmail.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Trương Ngọc Trọng</v>
-      </c>
-      <c r="C10" t="str">
-        <v>18-03-2000</v>
-      </c>
-      <c r="D10" t="str">
-        <v>0358489850</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Bình Định</v>
-      </c>
-      <c r="F10" t="str">
-        <v>truongngoctrongjhk@gmail.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Nguyễn Văn A</v>
-      </c>
-      <c r="C11" t="str">
-        <v>03-03-2000</v>
-      </c>
-      <c r="D11" t="str">
-        <v>0359854856</v>
-      </c>
-      <c r="E11" t="str">
-        <v>HCM</v>
-      </c>
-      <c r="F11" t="str">
-        <v>nguyenvanaghj@gmail.com</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Huỳnh Minh Hoàng</v>
-      </c>
-      <c r="C12" t="str">
-        <v>02-11-2022</v>
-      </c>
-      <c r="D12" t="str">
-        <v>0123456782</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Quảng Ngãi</v>
-      </c>
-      <c r="F12" t="str">
-        <v>17-09-2021</v>
+        <v>email@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>